--- a/Batats/Db.xlsx
+++ b/Batats/Db.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mqassem\source\repos\Batats\Batats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05458042-C153-4B8F-9E4D-678AAA68EF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36D856D-782C-47C1-979C-ABC013D62333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="karta" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -371,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,4 +410,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E738992-079A-48EA-B8AA-A5D6671F0C56}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Batats/Db.xlsx
+++ b/Batats/Db.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mqassem\source\repos\Batats\Batats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36D856D-782C-47C1-979C-ABC013D62333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C924D2B-6943-4560-85A1-BEF078A947D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="karta" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="price" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,40 +26,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>farmer</t>
-  </si>
-  <si>
-    <t>supplier</t>
-  </si>
-  <si>
-    <t>kartaId</t>
-  </si>
-  <si>
-    <t>Taqawy</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>net</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>price_akd</t>
+  </si>
+  <si>
+    <t>price_free</t>
+  </si>
+  <si>
+    <t>الفلاح</t>
+  </si>
+  <si>
+    <t>المورد</t>
+  </si>
+  <si>
+    <t>رقم الكارته</t>
+  </si>
+  <si>
+    <t>التقاوي</t>
+  </si>
+  <si>
+    <t>الميزان قائم</t>
+  </si>
+  <si>
+    <t>التاريخ</t>
+  </si>
+  <si>
+    <t>الخصم</t>
+  </si>
+  <si>
+    <t>الصافي</t>
+  </si>
+  <si>
+    <t>محمود قاسم</t>
+  </si>
+  <si>
+    <t>بكر صقر</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1425</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,13 +100,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,8 +143,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,41 +443,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="17.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="6" customWidth="1"/>
+    <col min="7" max="8" width="17.5546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45025</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -413,21 +515,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E738992-079A-48EA-B8AA-A5D6671F0C56}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BDE2B6-2160-44B0-BA70-F6A1A2B9ACE3}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
